--- a/TroubleShoot.xlsx
+++ b/TroubleShoot.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vohi0\Desktop\Projects\UTS-Hackathon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gimmihwa/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41026B83-E4FA-474B-841F-1D258ACB2C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B19A417-3CD1-B742-8F3F-F59BE24258A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69069943-87DC-4A46-91B4-9177EE54C2CA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{69069943-87DC-4A46-91B4-9177EE54C2CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="whole table" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="152">
   <si>
     <t>Error</t>
   </si>
@@ -211,6 +212,278 @@
   </si>
   <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>Error/System</t>
+  </si>
+  <si>
+    <t>Main starting valve faulty</t>
+  </si>
+  <si>
+    <t>Starting valve faulty</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Excessiveclearance between injection pumppiston andpumpcylinder</t>
+  </si>
+  <si>
+    <t>Speed governor/booster</t>
+  </si>
+  <si>
+    <t>faulty/interference/incorrectly adjusted</t>
+  </si>
+  <si>
+    <t>Injection valve</t>
+  </si>
+  <si>
+    <t>Inlet and exhaust valves</t>
+  </si>
+  <si>
+    <t>Inlet or exhaust valves are sticking, valve springs broken, valves leaking</t>
+  </si>
+  <si>
+    <t>113.xx, 114.xx</t>
+  </si>
+  <si>
+    <t>The engine does not reach its full power/speed</t>
+  </si>
+  <si>
+    <t>Fuel viscosity insufficient, fuel overheated</t>
+  </si>
+  <si>
+    <t>Fuel injection timer</t>
+  </si>
+  <si>
+    <t>Injection time too late (only for engines with automatic fuelinjectiontimer)</t>
+  </si>
+  <si>
+    <t>3.4, 200.xx,</t>
+  </si>
+  <si>
+    <t>120.xx</t>
+  </si>
+  <si>
+    <t>15 ●</t>
+  </si>
+  <si>
+    <t>pump</t>
+  </si>
+  <si>
+    <t>Injection pump plunger sticking, spring broken</t>
+  </si>
+  <si>
+    <t>200.xx</t>
+  </si>
+  <si>
+    <t>Control rod, regulating sleeve or pump element sticking</t>
+  </si>
+  <si>
+    <t>Leaky pressure valve in the injection pump</t>
+  </si>
+  <si>
+    <t>Injection valves</t>
+  </si>
+  <si>
+    <t>Nozzle openings or injection pipes blocked</t>
+  </si>
+  <si>
+    <t>Governor or control linkage misadjusted</t>
+  </si>
+  <si>
+    <t>3.4, 140.xx</t>
+  </si>
+  <si>
+    <t>Governor control linkage stiff or jammed</t>
+  </si>
+  <si>
+    <t>203.xx</t>
+  </si>
+  <si>
+    <t>Speed release too low</t>
+  </si>
+  <si>
+    <t>Turbocharger</t>
+  </si>
+  <si>
+    <t>Turbocharger contaminated or faulty</t>
+  </si>
+  <si>
+    <t>500.xx</t>
+  </si>
+  <si>
+    <t>INFO
+(Section/Work Card in DO0F466162E
+Maintenance Manual)</t>
+  </si>
+  <si>
+    <t>Speed governor/ Control linkage</t>
+  </si>
+  <si>
+    <t>Ship</t>
+  </si>
+  <si>
+    <t>formarineengines:Propellerdamagedorfoulingon theship'shull</t>
+  </si>
+  <si>
+    <t>Engine running unevenly, knocking</t>
+  </si>
+  <si>
+    <t>Engine</t>
+  </si>
+  <si>
+    <t>Engine or individual cylinders severely overloaded</t>
+  </si>
+  <si>
+    <t>3.5, 4.3</t>
+  </si>
+  <si>
+    <t>Injection time too early (only for engines with automatic fuelinjectiontimer)</t>
+  </si>
+  <si>
+    <t>Excessive valve clearance</t>
+  </si>
+  <si>
+    <t>111.xx</t>
+  </si>
+  <si>
+    <t>Engine running at fluctuating speeds</t>
+  </si>
+  <si>
+    <t>Air in fuel</t>
+  </si>
+  <si>
+    <t>Engine speed drops, engine stops</t>
+  </si>
+  <si>
+    <t>Governor  misadjusted,  control  linkage  overly extended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed governor/ Control linkage </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4, 140.xx</t>
+  </si>
+  <si>
+    <t>Injection  pump/injection drive</t>
+  </si>
+  <si>
+    <t>Speedreferencevalue unstable(airleakage/electrical signal)</t>
+  </si>
+  <si>
+    <t>Set speed value failed</t>
+  </si>
+  <si>
+    <t>Shut-down device triggered</t>
+  </si>
+  <si>
+    <t>Overspeed protection triggered</t>
+  </si>
+  <si>
+    <t>Speed governor - Setting of the "dynamics"</t>
+  </si>
+  <si>
+    <t>Overspeed relay faulty</t>
+  </si>
+  <si>
+    <t>Exhaust gas plume sooty, dark</t>
+  </si>
+  <si>
+    <t>Charge air system</t>
+  </si>
+  <si>
+    <t>Charge air too cold</t>
+  </si>
+  <si>
+    <t>Fuel injection pump, baffle screws worn</t>
+  </si>
+  <si>
+    <t>Inlet or exhaust valves are sticking, valve springs bro- ken, valves leaking</t>
+  </si>
+  <si>
+    <t>Charge limit too high (marine main engines - only in manoeuvring operation)</t>
+  </si>
+  <si>
+    <t>Air intake filter clogged (lack of air)</t>
+  </si>
+  <si>
+    <t>Exhaust gas plume bluish</t>
+  </si>
+  <si>
+    <t>Lube oil system</t>
+  </si>
+  <si>
+    <t>Oil level in oil sump too high (wet sump)</t>
+  </si>
+  <si>
+    <t>Piston/Piston rings</t>
+  </si>
+  <si>
+    <t>Excessive piston ring clearance or gap too big</t>
+  </si>
+  <si>
+    <t>3.5, 034.xx</t>
+  </si>
+  <si>
+    <t>Piston rings stuck fast or broken</t>
+  </si>
+  <si>
+    <t>034.xx</t>
+  </si>
+  <si>
+    <t>Turbocharger over-lubricated</t>
+  </si>
+  <si>
+    <t>Noise from valve or injection pump drive (noise speed-related)</t>
+  </si>
+  <si>
+    <t>Drive roller faulty or broken spring</t>
+  </si>
+  <si>
+    <t>Fumes from crankcase/crankcase ventilation, muffled noises originating from crankcase</t>
+  </si>
+  <si>
+    <t>Lubricating oil</t>
+  </si>
+  <si>
+    <t>Water content too high</t>
+  </si>
+  <si>
+    <t>Crankcase ventilation blocked</t>
+  </si>
+  <si>
+    <t>Running gear/Crankshaft</t>
+  </si>
+  <si>
+    <t>Piston or bearing running hot or starting to pick up</t>
+  </si>
+  <si>
+    <t>3.4, 4.3</t>
+  </si>
+  <si>
+    <t>Oil mist detector triggered</t>
+  </si>
+  <si>
+    <t>Oil mist detector</t>
+  </si>
+  <si>
+    <t>Sensitivity incorrectly set</t>
+  </si>
+  <si>
+    <t>Condensed water inmeasuringunit(ifengine-room fansblowcoldairontodetector)</t>
+  </si>
+  <si>
+    <t>Lubricating oil - water content too high</t>
+  </si>
+  <si>
+    <t>Splash oil monitoring system triggered</t>
+  </si>
+  <si>
+    <t>Lubricating oil - Temperature too high</t>
+  </si>
+  <si>
+    <t>Lubricating oil - Temperature deviation from the mean value too great</t>
   </si>
 </sst>
 </file>
@@ -593,17 +866,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6D6C01-8002-4FAB-97CD-F30A78CCE11B}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="51.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="51.5" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -634,7 +907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -651,7 +924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -668,7 +941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -685,7 +958,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -699,7 +972,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -713,7 +986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -730,7 +1003,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -744,7 +1017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -758,7 +1031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -775,7 +1048,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -792,7 +1065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -806,7 +1079,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -823,7 +1096,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -840,7 +1113,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -857,7 +1130,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -871,7 +1144,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -885,7 +1158,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -902,7 +1175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -919,7 +1192,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -933,7 +1206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -950,7 +1223,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -964,7 +1237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -985,4 +1258,1557 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23833669-2C64-DF40-813A-5ACBAA87FCD7}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E129"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E23" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E31" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E33" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" t="s">
+        <v>109</v>
+      </c>
+      <c r="D69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" t="s">
+        <v>53</v>
+      </c>
+      <c r="E78" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" t="s">
+        <v>57</v>
+      </c>
+      <c r="E81" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" t="s">
+        <v>101</v>
+      </c>
+      <c r="D82" t="s">
+        <v>102</v>
+      </c>
+      <c r="E82" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" t="s">
+        <v>114</v>
+      </c>
+      <c r="E83" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85">
+        <v>3.4</v>
+      </c>
+      <c r="E85" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>116</v>
+      </c>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" t="s">
+        <v>44</v>
+      </c>
+      <c r="E87" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" t="s">
+        <v>117</v>
+      </c>
+      <c r="D89" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90" t="s">
+        <v>90</v>
+      </c>
+      <c r="E90" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" t="s">
+        <v>118</v>
+      </c>
+      <c r="E91" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>119</v>
+      </c>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>65</v>
+      </c>
+      <c r="C93" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E93" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" t="s">
+        <v>101</v>
+      </c>
+      <c r="D94" t="s">
+        <v>102</v>
+      </c>
+      <c r="E94" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95">
+        <v>3.5</v>
+      </c>
+      <c r="E95" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96" t="s">
+        <v>76</v>
+      </c>
+      <c r="D96" t="s">
+        <v>77</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" t="s">
+        <v>122</v>
+      </c>
+      <c r="D97" t="s">
+        <v>82</v>
+      </c>
+      <c r="E97" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98" t="s">
+        <v>60</v>
+      </c>
+      <c r="E98" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>70</v>
+      </c>
+      <c r="C99" t="s">
+        <v>123</v>
+      </c>
+      <c r="D99" t="s">
+        <v>72</v>
+      </c>
+      <c r="E99" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" t="s">
+        <v>124</v>
+      </c>
+      <c r="E100" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" t="s">
+        <v>93</v>
+      </c>
+      <c r="D101" t="s">
+        <v>94</v>
+      </c>
+      <c r="E101" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" t="s">
+        <v>125</v>
+      </c>
+      <c r="E102" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>126</v>
+      </c>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" t="s">
+        <v>53</v>
+      </c>
+      <c r="E104" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C105" t="s">
+        <v>128</v>
+      </c>
+      <c r="E105" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>129</v>
+      </c>
+      <c r="C106" t="s">
+        <v>130</v>
+      </c>
+      <c r="D106" t="s">
+        <v>131</v>
+      </c>
+      <c r="E106" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>129</v>
+      </c>
+      <c r="C107" t="s">
+        <v>132</v>
+      </c>
+      <c r="D107" t="s">
+        <v>133</v>
+      </c>
+      <c r="E107" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108" t="s">
+        <v>134</v>
+      </c>
+      <c r="D108" t="s">
+        <v>94</v>
+      </c>
+      <c r="E108" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>135</v>
+      </c>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>80</v>
+      </c>
+      <c r="C110" t="s">
+        <v>81</v>
+      </c>
+      <c r="D110" t="s">
+        <v>82</v>
+      </c>
+      <c r="E110" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" t="s">
+        <v>136</v>
+      </c>
+      <c r="D112" t="s">
+        <v>82</v>
+      </c>
+      <c r="E112" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>70</v>
+      </c>
+      <c r="C113" t="s">
+        <v>123</v>
+      </c>
+      <c r="D113" t="s">
+        <v>72</v>
+      </c>
+      <c r="E113" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>70</v>
+      </c>
+      <c r="C114" t="s">
+        <v>104</v>
+      </c>
+      <c r="D114" t="s">
+        <v>105</v>
+      </c>
+      <c r="E114" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>137</v>
+      </c>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" t="s">
+        <v>139</v>
+      </c>
+      <c r="D116" t="s">
+        <v>53</v>
+      </c>
+      <c r="E116" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>100</v>
+      </c>
+      <c r="C117" t="s">
+        <v>140</v>
+      </c>
+      <c r="E117" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>129</v>
+      </c>
+      <c r="C118" t="s">
+        <v>130</v>
+      </c>
+      <c r="D118" t="s">
+        <v>133</v>
+      </c>
+      <c r="E118" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>141</v>
+      </c>
+      <c r="C119" t="s">
+        <v>142</v>
+      </c>
+      <c r="D119" t="s">
+        <v>143</v>
+      </c>
+      <c r="E119" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>144</v>
+      </c>
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121" t="s">
+        <v>146</v>
+      </c>
+      <c r="E121" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122" t="s">
+        <v>147</v>
+      </c>
+      <c r="E122" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>138</v>
+      </c>
+      <c r="C123" t="s">
+        <v>148</v>
+      </c>
+      <c r="D123" t="s">
+        <v>53</v>
+      </c>
+      <c r="E123" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>129</v>
+      </c>
+      <c r="C124" t="s">
+        <v>130</v>
+      </c>
+      <c r="D124" t="s">
+        <v>131</v>
+      </c>
+      <c r="E124" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>141</v>
+      </c>
+      <c r="C125" t="s">
+        <v>142</v>
+      </c>
+      <c r="D125" t="s">
+        <v>143</v>
+      </c>
+      <c r="E125" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>149</v>
+      </c>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>138</v>
+      </c>
+      <c r="C127" t="s">
+        <v>150</v>
+      </c>
+      <c r="E127" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>138</v>
+      </c>
+      <c r="C128" t="s">
+        <v>151</v>
+      </c>
+      <c r="E128" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>141</v>
+      </c>
+      <c r="C129" t="s">
+        <v>142</v>
+      </c>
+      <c r="D129" t="s">
+        <v>143</v>
+      </c>
+      <c r="E129" s="2">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TroubleShoot.xlsx
+++ b/TroubleShoot.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gimmihwa/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gimmihwa/Desktop/AI-HACKATHON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B19A417-3CD1-B742-8F3F-F59BE24258A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E1D38F-B9C0-A54C-9192-836561025911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{69069943-87DC-4A46-91B4-9177EE54C2CA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{69069943-87DC-4A46-91B4-9177EE54C2CA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="whole table" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="127">
   <si>
     <t>Error</t>
   </si>
@@ -52,27 +51,12 @@
     <t>Pressure in the compressed air tank too low</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main starting valve faulty </t>
-  </si>
-  <si>
     <t>162.xx</t>
   </si>
   <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starting valve faulty </t>
-  </si>
-  <si>
     <t>161.xx</t>
   </si>
   <si>
-    <t>03</t>
-  </si>
-  <si>
     <t>Starting air pilot valve faulty</t>
   </si>
   <si>
@@ -91,69 +75,39 @@
     <t>Switching device not fully disengaged</t>
   </si>
   <si>
-    <t>79</t>
-  </si>
-  <si>
     <t>Engine reaches firing speed, firing does not occur</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuel </t>
-  </si>
-  <si>
     <t>Fuel quality inadequate</t>
   </si>
   <si>
-    <t>09</t>
-  </si>
-  <si>
     <t>Fuel system</t>
   </si>
   <si>
     <t>Fuel tank empty</t>
   </si>
   <si>
-    <t>06</t>
-  </si>
-  <si>
     <t>Fuel system not bled</t>
   </si>
   <si>
-    <t>07</t>
-  </si>
-  <si>
     <t>Injection pumps fail to pump</t>
   </si>
   <si>
     <t>3.4, 200.xx</t>
   </si>
   <si>
-    <t>08</t>
-  </si>
-  <si>
     <t>Fuel pressure before injection pump too low, feed pump faulty</t>
   </si>
   <si>
     <t>3.4, 3.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuel filter blocked </t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>Injection pump/injection pump drive</t>
   </si>
   <si>
-    <t>Excessive clearance between injection pumppiston and pump cylinder</t>
-  </si>
-  <si>
     <t>3.5, 200.xx</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>Speed regulation system</t>
   </si>
   <si>
@@ -169,54 +123,27 @@
     <t>140.xx, 400.xx</t>
   </si>
   <si>
-    <t>78</t>
-  </si>
-  <si>
     <t>Filling release missing/too low</t>
   </si>
   <si>
-    <t>63</t>
-  </si>
-  <si>
     <t>Cylinders firing irregularly</t>
   </si>
   <si>
-    <t>05</t>
-  </si>
-  <si>
     <t>Water in fuel</t>
   </si>
   <si>
     <t>4.1, 000.05</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuel system not bled </t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Fuel filter blocked</t>
   </si>
   <si>
-    <t xml:space="preserve">Injection valve </t>
-  </si>
-  <si>
     <t>Injection valves faulty</t>
   </si>
   <si>
     <t>221.xx</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Error/System</t>
-  </si>
-  <si>
     <t>Main starting valve faulty</t>
   </si>
   <si>
@@ -311,11 +238,6 @@
   </si>
   <si>
     <t>500.xx</t>
-  </si>
-  <si>
-    <t>INFO
-(Section/Work Card in DO0F466162E
-Maintenance Manual)</t>
   </si>
   <si>
     <t>Speed governor/ Control linkage</t>
@@ -490,19 +412,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -525,11 +441,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,413 +777,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6D6C01-8002-4FAB-97CD-F30A78CCE11B}">
-  <dimension ref="A1:E24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="51.5" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="3">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23833669-2C64-DF40-813A-5ACBAA87FCD7}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1278,18 +792,18 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1297,7 +811,7 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1306,7 +820,7 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1315,12 +829,12 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1329,12 +843,12 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1343,1468 +857,1468 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="2">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="2">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="2">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="2">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="2">
+        <v>29</v>
+      </c>
+      <c r="E17" s="1">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="2">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1">
         <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="2">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="2">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="2">
+        <v>35</v>
+      </c>
+      <c r="E24" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="2">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="2">
+        <v>24</v>
+      </c>
+      <c r="E26" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="2">
+        <v>36</v>
+      </c>
+      <c r="E27" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="2">
+        <v>38</v>
+      </c>
+      <c r="E28" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="2">
+        <v>48</v>
+      </c>
+      <c r="E29" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D31">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="2">
+        <v>35</v>
+      </c>
+      <c r="E32" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D33">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="2">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="2">
+        <v>24</v>
+      </c>
+      <c r="E35" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="2">
+        <v>36</v>
+      </c>
+      <c r="E36" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="2">
+        <v>26</v>
+      </c>
+      <c r="E39" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E40" s="2"/>
+      <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="2">
+        <v>58</v>
+      </c>
+      <c r="E41" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="2">
+        <v>58</v>
+      </c>
+      <c r="E42" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" s="2">
+        <v>58</v>
+      </c>
+      <c r="E43" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="2">
+        <v>38</v>
+      </c>
+      <c r="E44" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="2">
+        <v>38</v>
+      </c>
+      <c r="E45" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="2">
+        <v>29</v>
+      </c>
+      <c r="E46" s="1">
         <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="2">
+        <v>64</v>
+      </c>
+      <c r="E47" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="2">
+        <v>66</v>
+      </c>
+      <c r="E48" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="2">
+        <v>48</v>
+      </c>
+      <c r="E49" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="2">
+        <v>32</v>
+      </c>
+      <c r="E50" s="1">
         <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="2">
+        <v>67</v>
+      </c>
+      <c r="E51" s="1">
         <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="2">
+        <v>70</v>
+      </c>
+      <c r="E52" s="1">
         <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="2">
+        <v>73</v>
+      </c>
+      <c r="E53" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" s="2">
+        <v>20</v>
+      </c>
+      <c r="E55" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" s="2">
+        <v>24</v>
+      </c>
+      <c r="E56" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
-      </c>
-      <c r="E57" s="2">
+        <v>36</v>
+      </c>
+      <c r="E57" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" s="2">
+        <v>77</v>
+      </c>
+      <c r="E58" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="2">
+        <v>53</v>
+      </c>
+      <c r="E59" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D61" t="s">
-        <v>82</v>
-      </c>
-      <c r="E61" s="2">
+        <v>58</v>
+      </c>
+      <c r="E61" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E62" s="2"/>
+      <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>60</v>
-      </c>
-      <c r="E63" s="2">
+        <v>38</v>
+      </c>
+      <c r="E63" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D64" t="s">
-        <v>72</v>
-      </c>
-      <c r="E64" s="2">
+        <v>48</v>
+      </c>
+      <c r="E64" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="D65" t="s">
-        <v>105</v>
-      </c>
-      <c r="E65" s="2">
+        <v>80</v>
+      </c>
+      <c r="E65" s="1">
         <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>107</v>
-      </c>
-      <c r="E67" s="2">
+        <v>82</v>
+      </c>
+      <c r="E67" s="1">
         <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>35</v>
-      </c>
-      <c r="E68" s="2">
+        <v>24</v>
+      </c>
+      <c r="E68" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>111</v>
-      </c>
-      <c r="E69" s="2">
+        <v>86</v>
+      </c>
+      <c r="E69" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D70" t="s">
-        <v>44</v>
-      </c>
-      <c r="E70" s="2">
+        <v>29</v>
+      </c>
+      <c r="E70" s="1">
         <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E71" s="2"/>
+      <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D72" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72" s="2">
+        <v>66</v>
+      </c>
+      <c r="E72" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>46</v>
-      </c>
-      <c r="E73" s="2">
+        <v>31</v>
+      </c>
+      <c r="E73" s="1">
         <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C74" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D74" t="s">
-        <v>82</v>
-      </c>
-      <c r="E74" s="2">
+        <v>58</v>
+      </c>
+      <c r="E74" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E75" s="2"/>
+      <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>113</v>
-      </c>
-      <c r="E76" s="2">
+        <v>88</v>
+      </c>
+      <c r="E76" s="1">
         <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>108</v>
-      </c>
-      <c r="E77" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C78" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D78" t="s">
-        <v>53</v>
-      </c>
-      <c r="E78" s="2">
+        <v>35</v>
+      </c>
+      <c r="E78" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
-      </c>
-      <c r="E79" s="2">
+        <v>19</v>
+      </c>
+      <c r="E79" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>35</v>
-      </c>
-      <c r="E80" s="2">
+        <v>24</v>
+      </c>
+      <c r="E80" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>57</v>
-      </c>
-      <c r="E81" s="2">
+        <v>36</v>
+      </c>
+      <c r="E81" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C82" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="D82" t="s">
-        <v>102</v>
-      </c>
-      <c r="E82" s="2">
+        <v>77</v>
+      </c>
+      <c r="E82" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C83" t="s">
-        <v>114</v>
-      </c>
-      <c r="E83" s="2">
+        <v>89</v>
+      </c>
+      <c r="E83" s="1">
         <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C84" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D84" t="s">
-        <v>90</v>
-      </c>
-      <c r="E84" s="2">
+        <v>66</v>
+      </c>
+      <c r="E84" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D85">
         <v>3.4</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>116</v>
-      </c>
-      <c r="E86" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C87" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D87" t="s">
-        <v>44</v>
-      </c>
-      <c r="E87" s="2">
+        <v>29</v>
+      </c>
+      <c r="E87" s="1">
         <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>68</v>
-      </c>
-      <c r="E88" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C89" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>44</v>
-      </c>
-      <c r="E89" s="2">
+        <v>29</v>
+      </c>
+      <c r="E89" s="1">
         <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C90" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D90" t="s">
-        <v>90</v>
-      </c>
-      <c r="E90" s="2">
+        <v>66</v>
+      </c>
+      <c r="E90" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>118</v>
-      </c>
-      <c r="E91" s="2">
+        <v>93</v>
+      </c>
+      <c r="E91" s="1">
         <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>119</v>
-      </c>
-      <c r="E92" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C93" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D93">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C94" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="D94" t="s">
-        <v>102</v>
-      </c>
-      <c r="E94" s="2">
+        <v>77</v>
+      </c>
+      <c r="E94" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="D95">
         <v>3.5</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="1">
         <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C96" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D96" t="s">
-        <v>77</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C97" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="D97" t="s">
-        <v>82</v>
-      </c>
-      <c r="E97" s="2">
+        <v>58</v>
+      </c>
+      <c r="E97" s="1">
         <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C98" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D98" t="s">
-        <v>60</v>
-      </c>
-      <c r="E98" s="2">
+        <v>38</v>
+      </c>
+      <c r="E98" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C99" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>72</v>
-      </c>
-      <c r="E99" s="2">
+        <v>48</v>
+      </c>
+      <c r="E99" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>124</v>
-      </c>
-      <c r="E100" s="2">
+        <v>99</v>
+      </c>
+      <c r="E100" s="1">
         <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C101" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D101" t="s">
-        <v>94</v>
-      </c>
-      <c r="E101" s="2">
+        <v>70</v>
+      </c>
+      <c r="E101" s="1">
         <v>49</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C102" t="s">
-        <v>125</v>
-      </c>
-      <c r="E102" s="2">
+        <v>100</v>
+      </c>
+      <c r="E102" s="1">
         <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>126</v>
-      </c>
-      <c r="E103" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C104" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D104" t="s">
-        <v>53</v>
-      </c>
-      <c r="E104" s="2">
+        <v>35</v>
+      </c>
+      <c r="E104" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C105" t="s">
-        <v>128</v>
-      </c>
-      <c r="E105" s="2">
+        <v>103</v>
+      </c>
+      <c r="E105" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D106" t="s">
-        <v>131</v>
-      </c>
-      <c r="E106" s="2">
+        <v>106</v>
+      </c>
+      <c r="E106" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C107" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="D107" t="s">
-        <v>133</v>
-      </c>
-      <c r="E107" s="2">
+        <v>108</v>
+      </c>
+      <c r="E107" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C108" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D108" t="s">
-        <v>94</v>
-      </c>
-      <c r="E108" s="2">
+        <v>70</v>
+      </c>
+      <c r="E108" s="1">
         <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>135</v>
-      </c>
-      <c r="E109" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B110" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C110" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D110" t="s">
-        <v>82</v>
-      </c>
-      <c r="E110" s="2">
+        <v>58</v>
+      </c>
+      <c r="E110" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E111" s="2"/>
+      <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C112" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="D112" t="s">
-        <v>82</v>
-      </c>
-      <c r="E112" s="2">
+        <v>58</v>
+      </c>
+      <c r="E112" s="1">
         <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C113" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D113" t="s">
-        <v>72</v>
-      </c>
-      <c r="E113" s="2">
+        <v>48</v>
+      </c>
+      <c r="E113" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C114" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="D114" t="s">
-        <v>105</v>
-      </c>
-      <c r="E114" s="2">
+        <v>80</v>
+      </c>
+      <c r="E114" s="1">
         <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>137</v>
-      </c>
-      <c r="E115" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="E115" s="1"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C116" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D116" t="s">
-        <v>53</v>
-      </c>
-      <c r="E116" s="2">
+        <v>35</v>
+      </c>
+      <c r="E116" s="1">
         <v>81</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C117" t="s">
-        <v>140</v>
-      </c>
-      <c r="E117" s="2">
+        <v>115</v>
+      </c>
+      <c r="E117" s="1">
         <v>93</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C118" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D118" t="s">
-        <v>133</v>
-      </c>
-      <c r="E118" s="2">
+        <v>108</v>
+      </c>
+      <c r="E118" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C119" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D119" t="s">
-        <v>143</v>
-      </c>
-      <c r="E119" s="2">
+        <v>118</v>
+      </c>
+      <c r="E119" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>144</v>
-      </c>
-      <c r="E120" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="E120" s="1"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>146</v>
-      </c>
-      <c r="E121" s="2">
+        <v>121</v>
+      </c>
+      <c r="E121" s="1">
         <v>76</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>147</v>
-      </c>
-      <c r="E122" s="2">
+        <v>122</v>
+      </c>
+      <c r="E122" s="1">
         <v>77</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C123" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D123" t="s">
-        <v>53</v>
-      </c>
-      <c r="E123" s="2">
+        <v>35</v>
+      </c>
+      <c r="E123" s="1">
         <v>81</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C124" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D124" t="s">
-        <v>131</v>
-      </c>
-      <c r="E124" s="2">
+        <v>106</v>
+      </c>
+      <c r="E124" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C125" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D125" t="s">
-        <v>143</v>
-      </c>
-      <c r="E125" s="2">
+        <v>118</v>
+      </c>
+      <c r="E125" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>149</v>
-      </c>
-      <c r="E126" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="E126" s="1"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C127" t="s">
-        <v>150</v>
-      </c>
-      <c r="E127" s="2">
+        <v>125</v>
+      </c>
+      <c r="E127" s="1">
         <v>104</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C128" t="s">
-        <v>151</v>
-      </c>
-      <c r="E128" s="2">
+        <v>126</v>
+      </c>
+      <c r="E128" s="1">
         <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C129" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D129" t="s">
-        <v>143</v>
-      </c>
-      <c r="E129" s="2">
+        <v>118</v>
+      </c>
+      <c r="E129" s="1">
         <v>31</v>
       </c>
     </row>

--- a/TroubleShoot.xlsx
+++ b/TroubleShoot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gimmihwa/Desktop/AI-HACKATHON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E1D38F-B9C0-A54C-9192-836561025911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F12556-0F18-5243-A18A-ED248DE376EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{69069943-87DC-4A46-91B4-9177EE54C2CA}"/>
+    <workbookView xWindow="3100" yWindow="500" windowWidth="12760" windowHeight="16240" xr2:uid="{69069943-87DC-4A46-91B4-9177EE54C2CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="125">
   <si>
     <t>Error</t>
   </si>
@@ -156,12 +156,6 @@
     <t>Excessiveclearance between injection pumppiston andpumpcylinder</t>
   </si>
   <si>
-    <t>Speed governor/booster</t>
-  </si>
-  <si>
-    <t>faulty/interference/incorrectly adjusted</t>
-  </si>
-  <si>
     <t>Injection valve</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>15 ●</t>
   </si>
   <si>
-    <t>pump</t>
-  </si>
-  <si>
     <t>Injection pump plunger sticking, spring broken</t>
   </si>
   <si>
@@ -406,6 +397,9 @@
   </si>
   <si>
     <t>Lubricating oil - Temperature deviation from the mean value too great</t>
+  </si>
+  <si>
+    <t>3.4, 200.xx, 120.xx</t>
   </si>
 </sst>
 </file>
@@ -781,9 +775,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -807,1518 +803,1710 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>4.0999999999999996</v>
       </c>
       <c r="E8" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>4.0999999999999996</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
       </c>
       <c r="E11" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
       </c>
       <c r="E12" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
       </c>
       <c r="E15" s="1">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
       <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E18" s="1">
+        <v>63</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>4.0999999999999996</v>
       </c>
       <c r="E19" s="1">
-        <v>78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
       </c>
       <c r="E20" s="1">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23">
-        <v>4.0999999999999996</v>
+        <v>36</v>
       </c>
       <c r="E23" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
       </c>
       <c r="E25" s="1">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>4.0999999999999996</v>
       </c>
       <c r="E26" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
       </c>
       <c r="E27" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="D28">
+        <v>4.0999999999999996</v>
       </c>
       <c r="E28" s="1">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
       </c>
       <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>47</v>
       </c>
-      <c r="D29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="1"/>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31">
-        <v>4.0999999999999996</v>
+        <v>36</v>
       </c>
       <c r="E31" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33">
-        <v>4.0999999999999996</v>
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
       </c>
       <c r="E33" s="1">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
       </c>
       <c r="E34" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="1">
         <v>18</v>
-      </c>
-      <c r="C35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
       </c>
       <c r="E36" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
+      </c>
+      <c r="E37" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
       <c r="D38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="E38" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="1">
         <v>56</v>
       </c>
-      <c r="C39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="1">
-        <v>16</v>
-      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E40" s="1"/>
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E41" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E42" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E43" s="1">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E44" s="1">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E45" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="E46" s="1">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>71</v>
       </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
       <c r="C47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E47" s="1">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>71</v>
       </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="E48" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>71</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E49" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>71</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>73</v>
+      </c>
+      <c r="D50" t="s">
+        <v>74</v>
       </c>
       <c r="E50" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>71</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>75</v>
+      </c>
+      <c r="D51" t="s">
+        <v>51</v>
       </c>
       <c r="E51" s="1">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="B53" t="s">
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>73</v>
+        <v>54</v>
+      </c>
+      <c r="D53" t="s">
+        <v>55</v>
       </c>
       <c r="E53" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>71</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="D55" t="s">
+        <v>46</v>
       </c>
       <c r="E55" s="1">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>71</v>
+      </c>
+      <c r="B56" t="s">
+        <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E56" s="1">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="E57" s="1">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="E58" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>78</v>
+      </c>
+      <c r="B59" t="s">
+        <v>82</v>
       </c>
       <c r="C59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>78</v>
       </c>
-      <c r="D59" t="s">
-        <v>53</v>
-      </c>
-      <c r="E59" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
       <c r="D60" t="s">
-        <v>54</v>
-      </c>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="E60" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" t="s">
         <v>56</v>
       </c>
-      <c r="C61" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="D63" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="1">
         <v>58</v>
-      </c>
-      <c r="E61" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" t="s">
-        <v>38</v>
-      </c>
-      <c r="E63" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>46</v>
-      </c>
-      <c r="C64" t="s">
-        <v>47</v>
-      </c>
-      <c r="D64" t="s">
-        <v>48</v>
-      </c>
-      <c r="E64" s="1">
-        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>80</v>
+      </c>
+      <c r="B65" t="s">
+        <v>41</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>80</v>
       </c>
-      <c r="E65" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66" s="1"/>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>80</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>23</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
       </c>
       <c r="E67" s="1">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" t="s">
         <v>18</v>
       </c>
       <c r="C68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" t="s">
+        <v>74</v>
+      </c>
+      <c r="E69" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="1">
         <v>23</v>
       </c>
-      <c r="D68" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" t="s">
-        <v>84</v>
-      </c>
-      <c r="D69" t="s">
-        <v>86</v>
-      </c>
-      <c r="E69" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" t="s">
-        <v>29</v>
-      </c>
-      <c r="E70" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72">
+        <v>3.4</v>
+      </c>
+      <c r="E72" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="1">
         <v>85</v>
       </c>
-      <c r="C72" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" t="s">
-        <v>66</v>
-      </c>
-      <c r="E72" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" t="s">
-        <v>30</v>
-      </c>
-      <c r="D73" t="s">
-        <v>31</v>
-      </c>
-      <c r="E73" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>87</v>
-      </c>
-      <c r="B74" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" t="s">
-        <v>59</v>
-      </c>
-      <c r="D74" t="s">
-        <v>58</v>
-      </c>
-      <c r="E74" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" t="s">
-        <v>88</v>
-      </c>
-      <c r="E76" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>83</v>
-      </c>
-      <c r="E77" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="B77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E77" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>41</v>
+        <v>91</v>
+      </c>
+      <c r="B78" t="s">
+        <v>72</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="D78" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="E78" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>91</v>
+      </c>
+      <c r="B79" t="s">
+        <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>93</v>
+      </c>
+      <c r="D79">
+        <v>3.5</v>
       </c>
       <c r="E79" s="1">
-        <v>6</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>91</v>
+      </c>
+      <c r="B80" t="s">
+        <v>49</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
-      </c>
-      <c r="E80" s="1">
-        <v>12</v>
+        <v>51</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>91</v>
+      </c>
+      <c r="B81" t="s">
+        <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>94</v>
+      </c>
+      <c r="D81" t="s">
+        <v>55</v>
       </c>
       <c r="E81" s="1">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>75</v>
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>58</v>
       </c>
       <c r="C82" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D82" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E82" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>71</v>
+        <v>91</v>
+      </c>
+      <c r="B83" t="s">
+        <v>44</v>
       </c>
       <c r="C83" t="s">
-        <v>89</v>
+        <v>95</v>
+      </c>
+      <c r="D83" t="s">
+        <v>46</v>
       </c>
       <c r="E83" s="1">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>71</v>
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>65</v>
-      </c>
-      <c r="D84" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="E84" s="1">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>91</v>
+      </c>
+      <c r="B85" t="s">
+        <v>65</v>
       </c>
       <c r="C85" t="s">
-        <v>90</v>
-      </c>
-      <c r="D85">
-        <v>3.4</v>
+        <v>66</v>
+      </c>
+      <c r="D85" t="s">
+        <v>67</v>
       </c>
       <c r="E85" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>91</v>
       </c>
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>71</v>
+        <v>98</v>
+      </c>
+      <c r="B87" t="s">
+        <v>41</v>
       </c>
       <c r="C87" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D87" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E87" s="1">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" t="s">
+        <v>99</v>
+      </c>
       <c r="C88" t="s">
-        <v>44</v>
-      </c>
-      <c r="E88" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="E88" s="1">
+        <v>34</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>71</v>
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
+        <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D89" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="E89" s="1">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>71</v>
+        <v>98</v>
+      </c>
+      <c r="B90" t="s">
+        <v>101</v>
       </c>
       <c r="C90" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="D90" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="E90" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>65</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>106</v>
+      </c>
+      <c r="D91" t="s">
+        <v>67</v>
       </c>
       <c r="E91" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="E92" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="B92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" t="s">
+        <v>55</v>
+      </c>
+      <c r="E92" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>41</v>
+        <v>107</v>
+      </c>
+      <c r="B93" t="s">
+        <v>84</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93">
-        <v>4.0999999999999996</v>
+        <v>108</v>
+      </c>
+      <c r="D93" t="s">
+        <v>55</v>
       </c>
       <c r="E93" s="1">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C94" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D94" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E94" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>107</v>
+      </c>
+      <c r="B95" t="s">
+        <v>44</v>
       </c>
       <c r="C95" t="s">
-        <v>96</v>
-      </c>
-      <c r="D95">
-        <v>3.5</v>
+        <v>76</v>
+      </c>
+      <c r="D95" t="s">
+        <v>77</v>
       </c>
       <c r="E95" s="1">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>51</v>
+        <v>109</v>
+      </c>
+      <c r="B96" t="s">
+        <v>110</v>
       </c>
       <c r="C96" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="D96" t="s">
-        <v>53</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
+      </c>
+      <c r="E96" s="1">
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>25</v>
+        <v>109</v>
+      </c>
+      <c r="B97" t="s">
+        <v>72</v>
       </c>
       <c r="C97" t="s">
-        <v>97</v>
-      </c>
-      <c r="D97" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="E97" s="1">
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>61</v>
+        <v>109</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="D98" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="E98" s="1">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>46</v>
+        <v>109</v>
+      </c>
+      <c r="B99" t="s">
+        <v>113</v>
       </c>
       <c r="C99" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D99" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="E99" s="1">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>116</v>
+      </c>
+      <c r="B100" t="s">
+        <v>117</v>
       </c>
       <c r="C100" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E100" s="1">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>68</v>
+        <v>116</v>
+      </c>
+      <c r="B101" t="s">
+        <v>117</v>
       </c>
       <c r="C101" t="s">
-        <v>69</v>
-      </c>
-      <c r="D101" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="E101" s="1">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>68</v>
+        <v>116</v>
+      </c>
+      <c r="B102" t="s">
+        <v>110</v>
       </c>
       <c r="C102" t="s">
-        <v>100</v>
+        <v>120</v>
+      </c>
+      <c r="D102" t="s">
+        <v>35</v>
       </c>
       <c r="E102" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>116</v>
+      </c>
+      <c r="B103" t="s">
         <v>101</v>
       </c>
-      <c r="E103" s="1"/>
+      <c r="C103" t="s">
+        <v>102</v>
+      </c>
+      <c r="D103" t="s">
+        <v>103</v>
+      </c>
+      <c r="E103" s="1">
+        <v>28</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>41</v>
+        <v>116</v>
+      </c>
+      <c r="B104" t="s">
+        <v>113</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="D104" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="E104" s="1">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>121</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E105" s="1">
-        <v>34</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>121</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
       </c>
       <c r="C106" t="s">
+        <v>123</v>
+      </c>
+      <c r="E106" s="1">
         <v>105</v>
-      </c>
-      <c r="D106" t="s">
-        <v>106</v>
-      </c>
-      <c r="E106" s="1">
-        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>121</v>
+      </c>
+      <c r="B107" t="s">
+        <v>113</v>
       </c>
       <c r="C107" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D107" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E107" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>68</v>
-      </c>
-      <c r="C108" t="s">
-        <v>109</v>
-      </c>
-      <c r="D108" t="s">
-        <v>70</v>
-      </c>
-      <c r="E108" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>110</v>
-      </c>
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>87</v>
-      </c>
-      <c r="B110" t="s">
-        <v>56</v>
-      </c>
-      <c r="C110" t="s">
-        <v>57</v>
-      </c>
-      <c r="D110" t="s">
-        <v>58</v>
-      </c>
-      <c r="E110" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E111" s="1"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>87</v>
-      </c>
-      <c r="C112" t="s">
-        <v>111</v>
-      </c>
-      <c r="D112" t="s">
-        <v>58</v>
-      </c>
-      <c r="E112" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>46</v>
-      </c>
-      <c r="C113" t="s">
-        <v>98</v>
-      </c>
-      <c r="D113" t="s">
-        <v>48</v>
-      </c>
-      <c r="E113" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>46</v>
-      </c>
-      <c r="C114" t="s">
-        <v>79</v>
-      </c>
-      <c r="D114" t="s">
-        <v>80</v>
-      </c>
-      <c r="E114" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>112</v>
-      </c>
-      <c r="E115" s="1"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>113</v>
-      </c>
-      <c r="C116" t="s">
-        <v>114</v>
-      </c>
-      <c r="D116" t="s">
-        <v>35</v>
-      </c>
-      <c r="E116" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>75</v>
-      </c>
-      <c r="C117" t="s">
-        <v>115</v>
-      </c>
-      <c r="E117" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>104</v>
-      </c>
-      <c r="C118" t="s">
-        <v>105</v>
-      </c>
-      <c r="D118" t="s">
-        <v>108</v>
-      </c>
-      <c r="E118" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>116</v>
-      </c>
-      <c r="C119" t="s">
-        <v>117</v>
-      </c>
-      <c r="D119" t="s">
-        <v>118</v>
-      </c>
-      <c r="E119" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-      <c r="E120" s="1"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>120</v>
-      </c>
-      <c r="C121" t="s">
-        <v>121</v>
-      </c>
-      <c r="E121" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>120</v>
-      </c>
-      <c r="C122" t="s">
-        <v>122</v>
-      </c>
-      <c r="E122" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>113</v>
-      </c>
-      <c r="C123" t="s">
-        <v>123</v>
-      </c>
-      <c r="D123" t="s">
-        <v>35</v>
-      </c>
-      <c r="E123" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>104</v>
-      </c>
-      <c r="C124" t="s">
-        <v>105</v>
-      </c>
-      <c r="D124" t="s">
-        <v>106</v>
-      </c>
-      <c r="E124" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>116</v>
-      </c>
-      <c r="C125" t="s">
-        <v>117</v>
-      </c>
-      <c r="D125" t="s">
-        <v>118</v>
-      </c>
-      <c r="E125" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>124</v>
-      </c>
-      <c r="E126" s="1"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>113</v>
-      </c>
-      <c r="C127" t="s">
-        <v>125</v>
-      </c>
-      <c r="E127" s="1">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>113</v>
-      </c>
-      <c r="C128" t="s">
-        <v>126</v>
-      </c>
-      <c r="E128" s="1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>116</v>
-      </c>
-      <c r="C129" t="s">
-        <v>117</v>
-      </c>
-      <c r="D129" t="s">
-        <v>118</v>
-      </c>
-      <c r="E129" s="1">
         <v>31</v>
       </c>
     </row>
